--- a/GameMaster/RPGTale/Data/Data_Excel/TalentsMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/TalentsMetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC7EB38-141E-4A55-AB0D-B14B343BDC94}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0079AC35-982C-4029-934D-DD3EBD5DC1C8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="1605" windowWidth="23760" windowHeight="12870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="1530" windowWidth="18705" windowHeight="13155" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Talents" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
   <si>
     <t>TalentID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,10 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TalentTag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TalentType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,6 +135,14 @@
   </si>
   <si>
     <t>SkillRarity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TalentTagList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -535,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -552,6 +556,7 @@
     <col min="8" max="8" width="12.75" customWidth="1"/>
     <col min="9" max="9" width="12.375" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -559,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -571,10 +576,10 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
         <v>24</v>
-      </c>
-      <c r="G1" t="s">
-        <v>25</v>
       </c>
       <c r="H1" t="s">
         <v>9</v>
@@ -586,7 +591,42 @@
         <v>17</v>
       </c>
       <c r="K1" t="s">
-        <v>18</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -598,10 +638,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC874CD-51B1-475E-88AD-DC0AC520791B}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -626,6 +666,23 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>100</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -634,10 +691,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55AE2D68-7C8E-42E5-B36E-1D37C8255EE2}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -650,10 +707,10 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>11</v>
@@ -669,6 +726,32 @@
       </c>
       <c r="H1" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>100</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="1">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -679,10 +762,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59959465-7026-427D-9D3A-EE49A28661C1}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -692,16 +775,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/GameMaster/RPGTale/Data/Data_Excel/TalentsMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/TalentsMetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0079AC35-982C-4029-934D-DD3EBD5DC1C8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC5231B-2C62-47CE-956E-079129B2482F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="1530" windowWidth="18705" windowHeight="13155" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="1350" windowWidth="18705" windowHeight="13155" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Talents" sheetId="1" r:id="rId1"/>
@@ -693,9 +693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55AE2D68-7C8E-42E5-B36E-1D37C8255EE2}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -764,7 +762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59959465-7026-427D-9D3A-EE49A28661C1}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
